--- a/excel-fuzzy.xlsx
+++ b/excel-fuzzy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\fuzzymam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA74F87-EB53-4DC7-B323-276B3C7A2A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D65F40-BBBB-4A07-BAA5-C3C6D3447CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{7713B040-489A-40B1-B640-1F52A3A514E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{7713B040-489A-40B1-B640-1F52A3A514E6}"/>
   </bookViews>
   <sheets>
     <sheet name="BANJIR" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
   <si>
     <t>Variabel</t>
   </si>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52176DB-8DDB-4B8B-B00B-E9042777AAF8}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,43 +524,61 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -775,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C73D89E-54D1-4980-9E13-9E7F175579C4}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
